--- a/FollowData.xlsx
+++ b/FollowData.xlsx
@@ -68,10 +68,10 @@
     <t>desi________boy___41</t>
   </si>
   <si>
+    <t>arthi_harikrishnan_34</t>
+  </si>
+  <si>
     <t>vidhya_15_06</t>
-  </si>
-  <si>
-    <t>arthi_harikrishnan_34</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FollowData.xlsx
+++ b/FollowData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>lizstewart99__</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>vidhya_15_06</t>
+  </si>
+  <si>
+    <t>anusuya_balakrishnan7</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +484,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FollowData.xlsx
+++ b/FollowData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL 1\eclipse-workspace\InstagramAutomation\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -68,20 +68,19 @@
     <t>desi________boy___41</t>
   </si>
   <si>
+    <t>vidhya_15_06</t>
+  </si>
+  <si>
+    <t>anusuya_balakrishnan7</t>
+  </si>
+  <si>
     <t>arthi_harikrishnan_34</t>
-  </si>
-  <si>
-    <t>vidhya_15_06</t>
-  </si>
-  <si>
-    <t>anusuya_balakrishnan7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,12 +395,12 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -474,17 +473,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
